--- a/Data/DatosClientes.xlsx
+++ b/Data/DatosClientes.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hitss\IdeaProjects\PruebasCucunber1 - 11122020-Login y alta cliente (sinLogin)\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hitss\IdeaProjects\AltaClienteConExcel_17122020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546A6E23-4DC7-4CFD-9492-0CEBEE01C332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5EBFDE-EE25-458B-A0F2-EEB9B7732DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>lineaNegocio</t>
   </si>
@@ -153,12 +153,6 @@
     <t>VIDA</t>
   </si>
   <si>
-    <t>OTROS PRODUCTOS VIDA INDIVIDUAL</t>
-  </si>
-  <si>
-    <t>BENEFICIARIO</t>
-  </si>
-  <si>
     <t>SR.</t>
   </si>
   <si>
@@ -246,18 +240,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>MEMO</t>
-  </si>
-  <si>
-    <t>MEZA</t>
-  </si>
-  <si>
-    <t>MEME8401293U7</t>
-  </si>
-  <si>
-    <t>MEME840129HHGRRR04</t>
-  </si>
-  <si>
     <t>FRANCISCO JAVIER</t>
   </si>
   <si>
@@ -270,38 +252,25 @@
     <t>CUHF840129HHGRRR07</t>
   </si>
   <si>
-    <t>EMILIANO</t>
-  </si>
-  <si>
-    <t>PEREIRA</t>
-  </si>
-  <si>
-    <t>MIPE8401293U7</t>
-  </si>
-  <si>
-    <t>MIPE840129HHGRRR04</t>
-  </si>
-  <si>
     <t>CONTRATANTE</t>
   </si>
   <si>
-    <t>ASEGURADO</t>
-  </si>
-  <si>
-    <t>1000118135825956</t>
-  </si>
-  <si>
-    <t>1000118135834141</t>
-  </si>
-  <si>
-    <t>1000118135845390</t>
+    <t>METALIFE</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>JODE840129HHGRRR07</t>
+  </si>
+  <si>
+    <t>JODE8401294T7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,53 +607,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2:AO4"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO2:AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
-    <col min="19" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="26" max="27" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="4" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="27" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="79.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -817,124 +786,122 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AJ2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AN2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>87</v>
-      </c>
+      <c r="AO2"/>
     </row>
-    <row r="3" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -942,247 +909,120 @@
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="S3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="AA3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AE3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AJ3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AN3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>89</v>
-      </c>
+      <c r="AO3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
